--- a/regionseng/2/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/2/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -501,10 +501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P14"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,7 +513,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -531,7 +531,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -547,7 +547,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="9"/>
       <c r="B3" s="16">
         <v>2006</v>
@@ -594,8 +594,14 @@
       <c r="P3" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -644,8 +650,14 @@
       <c r="P4" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -694,8 +706,14 @@
       <c r="P5" s="4">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -744,8 +762,14 @@
       <c r="P6" s="5">
         <v>915</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="5">
+        <v>933</v>
+      </c>
+      <c r="R6" s="5">
+        <v>997.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -794,8 +818,14 @@
       <c r="P7" s="5">
         <v>837</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="5">
+        <v>840</v>
+      </c>
+      <c r="R7" s="5">
+        <v>989.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -844,8 +874,14 @@
       <c r="P8" s="4">
         <v>486.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="4">
+        <v>277.7</v>
+      </c>
+      <c r="R8" s="4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
@@ -894,8 +930,14 @@
       <c r="P9" s="4">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="R9" s="4">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -944,8 +986,14 @@
       <c r="P10" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
@@ -994,8 +1042,14 @@
       <c r="P11" s="6">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R11" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -1044,8 +1098,14 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1094,8 +1154,14 @@
       <c r="P13" s="4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="R13" s="4">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1144,8 +1210,14 @@
       <c r="P14" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1161,7 +1233,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>

--- a/regionseng/2/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/2/hotels and restaurants/hotels and restaurants.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +598,7 @@
         <v>2021</v>
       </c>
       <c r="R3" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -654,7 +654,7 @@
         <v>20.5</v>
       </c>
       <c r="R4" s="3">
-        <v>21.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -710,7 +710,7 @@
         <v>20.5</v>
       </c>
       <c r="R5" s="4">
-        <v>21.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -766,7 +766,7 @@
         <v>933</v>
       </c>
       <c r="R6" s="5">
-        <v>997.9</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -822,7 +822,7 @@
         <v>840</v>
       </c>
       <c r="R7" s="5">
-        <v>989.8</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -878,7 +878,7 @@
         <v>277.7</v>
       </c>
       <c r="R8" s="4">
-        <v>351</v>
+        <v>916.6</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -934,7 +934,7 @@
         <v>11.8</v>
       </c>
       <c r="R9" s="4">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="4">
-        <v>4.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1046,7 +1046,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="R11" s="6">
-        <v>8.8000000000000007</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1158,7 +1158,7 @@
         <v>11.9</v>
       </c>
       <c r="R13" s="4">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="14" spans="1:18">
